--- a/backend/form_sablonlari/F.02 Üretim İş Emri Formu.XLSX
+++ b/backend/form_sablonlari/F.02 Üretim İş Emri Formu.XLSX
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f22b7514a3558dbe/Desktop/MERT SAKA METALURJİ KYS/SAKA METALURJI KYS/FORMLAR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duran Ozcelik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{A7AE164B-E7B6-48E0-A250-A14A369CD42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82BAB7AE-3F35-4DF6-B04F-ABE01F0EFC14}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC785844-7820-49D9-8D00-CE9631409D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANA" sheetId="2" r:id="rId1"/>
@@ -1617,7 +1617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1759,151 +1759,91 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1920,6 +1860,135 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2003,15 +2072,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2054,12 +2114,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2075,412 +2129,142 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2506,6 +2290,267 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2521,50 +2566,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2659,13 +2668,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -2728,13 +2737,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>449580</xdr:rowOff>
+          <xdr:rowOff>447675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>746760</xdr:rowOff>
+          <xdr:rowOff>742950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2801,7 +2810,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>982980</xdr:rowOff>
+          <xdr:rowOff>981075</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2862,13 +2871,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>937260</xdr:rowOff>
+          <xdr:rowOff>933450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>1226820</xdr:rowOff>
+          <xdr:rowOff>1228725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2929,13 +2938,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>1173480</xdr:rowOff>
+          <xdr:rowOff>1171575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>1470660</xdr:rowOff>
+          <xdr:rowOff>1466850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2994,15 +3003,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>312420</xdr:colOff>
+          <xdr:colOff>314325</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>487680</xdr:rowOff>
+          <xdr:rowOff>485775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3069,7 +3078,7 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>1935480</xdr:rowOff>
+          <xdr:rowOff>1933575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3130,13 +3139,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>1402080</xdr:rowOff>
+          <xdr:rowOff>1400175</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>1699260</xdr:rowOff>
+          <xdr:rowOff>1695450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3198,8 +3207,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2598</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
@@ -3342,15 +3351,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>297180</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3415,9 +3424,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>312420</xdr:colOff>
+          <xdr:colOff>314325</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>297180</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3482,7 +3491,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>312420</xdr:colOff>
+          <xdr:colOff>314325</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -3549,9 +3558,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>312420</xdr:colOff>
+          <xdr:colOff>314325</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>297180</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3616,9 +3625,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>312420</xdr:colOff>
+          <xdr:colOff>314325</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>297180</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3677,15 +3686,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>312420</xdr:colOff>
+          <xdr:colOff>314325</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>297180</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3750,7 +3759,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>312420</xdr:colOff>
+          <xdr:colOff>314325</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -3817,9 +3826,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>312420</xdr:colOff>
+          <xdr:colOff>314325</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>297180</xdr:rowOff>
+          <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3918,10 +3927,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4192,367 +4197,367 @@
   </sheetPr>
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:Q10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="7" customWidth="1"/>
     <col min="3" max="3" width="19" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="6" customWidth="1"/>
     <col min="5" max="5" width="10" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="22.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="3.5546875" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="17" max="17" width="28.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="3.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119"/>
-      <c r="B1" s="119"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="110" t="s">
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="142"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="123" t="s">
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="124"/>
+      <c r="P1" s="147"/>
       <c r="Q1" s="13">
         <v>45933</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="125" t="s">
+    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="126"/>
+      <c r="P2" s="149"/>
       <c r="Q2" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="125" t="s">
+    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="126"/>
+      <c r="P3" s="149"/>
       <c r="Q3" s="54">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="121"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="127" t="s">
+    <row r="4" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="144"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="128"/>
+      <c r="P4" s="151"/>
       <c r="Q4" s="53" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="145" t="s">
+    <row r="5" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="165" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="154" t="s">
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="172" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="155"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="142" t="s">
+      <c r="H5" s="173"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="143"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="131"/>
-    </row>
-    <row r="6" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="135" t="s">
+      <c r="M5" s="163"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="152"/>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="154"/>
+    </row>
+    <row r="6" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="153"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
       <c r="G6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="135" t="s">
+      <c r="I6" s="321"/>
+      <c r="J6" s="322"/>
+      <c r="K6" s="323"/>
+      <c r="L6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="136"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="134"/>
-    </row>
-    <row r="7" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="138" t="s">
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="155"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="157"/>
+    </row>
+    <row r="7" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="156" t="s">
+      <c r="B7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="157"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="135" t="s">
+      <c r="H7" s="175"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="136"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="134"/>
-    </row>
-    <row r="8" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="135" t="s">
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="155"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="157"/>
+    </row>
+    <row r="8" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="175" t="s">
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="176"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="135" t="s">
+      <c r="H8" s="111"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="136"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="133"/>
-      <c r="Q8" s="134"/>
-    </row>
-    <row r="9" spans="1:17" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="200" t="s">
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="157"/>
+    </row>
+    <row r="9" spans="1:17" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="201"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="206" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="207"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="199"/>
-      <c r="L9" s="166" t="s">
+      <c r="H9" s="62"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="167"/>
-      <c r="N9" s="168"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="165"/>
-    </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="188" t="s">
+      <c r="M9" s="102"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="100"/>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="189"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="180" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="182" t="s">
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="185" t="s">
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="186"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="186"/>
-      <c r="Q10" s="187"/>
-    </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="188" t="s">
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="122"/>
+    </row>
+    <row r="11" spans="1:17" s="3" customFormat="1" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="189"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="188" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="188" t="s">
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="189"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="191" t="s">
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="192"/>
-      <c r="N11" s="192"/>
-      <c r="O11" s="192"/>
-      <c r="P11" s="192"/>
-      <c r="Q11" s="193"/>
-    </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="210" t="s">
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="125"/>
+    </row>
+    <row r="12" spans="1:17" s="3" customFormat="1" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="211"/>
-      <c r="C12" s="211"/>
-      <c r="D12" s="211"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="211" t="s">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="G12" s="211"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="211"/>
-      <c r="K12" s="212"/>
-      <c r="L12" s="194"/>
-      <c r="M12" s="195"/>
-      <c r="N12" s="195"/>
-      <c r="O12" s="195"/>
-      <c r="P12" s="195"/>
-      <c r="Q12" s="196"/>
-    </row>
-    <row r="13" spans="1:17" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="203" t="s">
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="128"/>
+    </row>
+    <row r="13" spans="1:17" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="204"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="204"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="204"/>
-      <c r="P13" s="204"/>
-      <c r="Q13" s="205"/>
-    </row>
-    <row r="14" spans="1:17" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
+    </row>
+    <row r="14" spans="1:17" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="208" t="s">
+      <c r="B14" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="209"/>
-      <c r="D14" s="171" t="s">
+      <c r="C14" s="64"/>
+      <c r="D14" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="170"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105"/>
       <c r="H14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="171" t="s">
+      <c r="I14" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="170"/>
+      <c r="J14" s="105"/>
       <c r="K14" s="18" t="s">
         <v>30</v>
       </c>
@@ -4562,460 +4567,460 @@
       <c r="M14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="169" t="s">
+      <c r="N14" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="169"/>
-      <c r="P14" s="170"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="105"/>
       <c r="Q14" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="105"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="85"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="108"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="88"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="105"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="85"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="108"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="88"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="105"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="85"/>
       <c r="K17" s="12"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="108"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="88"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="105"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="85"/>
       <c r="K18" s="12"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="108"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="88"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="105"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="85"/>
       <c r="K19" s="12"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="108"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="88"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="105"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
       <c r="K20" s="12"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="108"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="88"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="105"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
       <c r="K21" s="12"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="108"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="88"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="105"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="85"/>
       <c r="K22" s="12"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="108"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="88"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="75" t="s">
+    <row r="23" spans="1:17" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="77"/>
-    </row>
-    <row r="24" spans="1:17" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="178"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="178"/>
+      <c r="M23" s="178"/>
+      <c r="N23" s="178"/>
+      <c r="O23" s="178"/>
+      <c r="P23" s="178"/>
+      <c r="Q23" s="179"/>
+    </row>
+    <row r="24" spans="1:17" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="78" t="s">
+      <c r="C24" s="181"/>
+      <c r="D24" s="180" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="78" t="s">
+      <c r="E24" s="181"/>
+      <c r="F24" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="78" t="s">
+      <c r="G24" s="182"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="79"/>
-      <c r="L24" s="78" t="s">
+      <c r="K24" s="181"/>
+      <c r="L24" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="M24" s="79"/>
-      <c r="N24" s="81" t="s">
+      <c r="M24" s="181"/>
+      <c r="N24" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="O24" s="82"/>
-      <c r="P24" s="83"/>
+      <c r="O24" s="184"/>
+      <c r="P24" s="185"/>
       <c r="Q24" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>1</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="67"/>
+      <c r="B25" s="199"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="203"/>
+      <c r="K25" s="205"/>
+      <c r="L25" s="203"/>
+      <c r="M25" s="205"/>
+      <c r="N25" s="186"/>
+      <c r="O25" s="187"/>
+      <c r="P25" s="188"/>
       <c r="Q25" s="20"/>
     </row>
-    <row r="26" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
         <v>2</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="91"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="193"/>
+      <c r="K26" s="195"/>
+      <c r="L26" s="193"/>
+      <c r="M26" s="195"/>
+      <c r="N26" s="196"/>
+      <c r="O26" s="197"/>
+      <c r="P26" s="198"/>
       <c r="Q26" s="22"/>
     </row>
-    <row r="27" spans="1:17" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="75" t="s">
+    <row r="27" spans="1:17" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="177" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="77"/>
-    </row>
-    <row r="28" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="178"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="178"/>
+      <c r="M27" s="178"/>
+      <c r="N27" s="178"/>
+      <c r="O27" s="178"/>
+      <c r="P27" s="178"/>
+      <c r="Q27" s="179"/>
+    </row>
+    <row r="28" spans="1:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="78" t="s">
+      <c r="C28" s="181"/>
+      <c r="D28" s="180" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="79"/>
-      <c r="F28" s="78" t="s">
+      <c r="E28" s="181"/>
+      <c r="F28" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="78" t="s">
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="K28" s="79"/>
-      <c r="L28" s="78" t="s">
+      <c r="K28" s="181"/>
+      <c r="L28" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="M28" s="79"/>
-      <c r="N28" s="81" t="s">
+      <c r="M28" s="181"/>
+      <c r="N28" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="O28" s="82"/>
-      <c r="P28" s="83"/>
+      <c r="O28" s="184"/>
+      <c r="P28" s="185"/>
       <c r="Q28" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>1</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="67"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="218"/>
+      <c r="G29" s="220"/>
+      <c r="H29" s="220"/>
+      <c r="I29" s="219"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="219"/>
+      <c r="L29" s="193"/>
+      <c r="M29" s="195"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="187"/>
+      <c r="P29" s="188"/>
       <c r="Q29" s="20"/>
     </row>
-    <row r="30" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>2</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="57"/>
+      <c r="B30" s="209"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="211"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="213"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="215"/>
+      <c r="J30" s="213"/>
+      <c r="K30" s="215"/>
+      <c r="L30" s="213"/>
+      <c r="M30" s="215"/>
+      <c r="N30" s="206"/>
+      <c r="O30" s="207"/>
+      <c r="P30" s="208"/>
       <c r="Q30" s="21"/>
     </row>
-    <row r="31" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25">
         <v>3</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="57"/>
+      <c r="B31" s="209"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="211"/>
+      <c r="E31" s="212"/>
+      <c r="F31" s="213"/>
+      <c r="G31" s="214"/>
+      <c r="H31" s="214"/>
+      <c r="I31" s="215"/>
+      <c r="J31" s="213"/>
+      <c r="K31" s="215"/>
+      <c r="L31" s="213"/>
+      <c r="M31" s="215"/>
+      <c r="N31" s="206"/>
+      <c r="O31" s="207"/>
+      <c r="P31" s="208"/>
       <c r="Q31" s="21"/>
     </row>
-    <row r="32" spans="1:17" ht="195.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="216" t="s">
+    <row r="32" spans="1:17" ht="195.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="217"/>
-      <c r="C32" s="218"/>
-      <c r="D32" s="213" t="s">
+      <c r="B32" s="75"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="214"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="214"/>
-      <c r="H32" s="214"/>
-      <c r="I32" s="214"/>
-      <c r="J32" s="214"/>
-      <c r="K32" s="215"/>
-      <c r="L32" s="188" t="s">
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="M32" s="190"/>
-      <c r="N32" s="219" t="s">
+      <c r="M32" s="67"/>
+      <c r="N32" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="O32" s="220"/>
-      <c r="P32" s="220"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
       <c r="Q32" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="109"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-    </row>
-    <row r="49" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="132"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="132"/>
+    </row>
+    <row r="49" spans="8:20" x14ac:dyDescent="0.25">
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:20" x14ac:dyDescent="0.25">
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:20" x14ac:dyDescent="0.25">
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H52" s="5"/>
       <c r="I52" s="2"/>
       <c r="J52" s="5"/>
@@ -5030,7 +5035,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
-    <row r="53" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H53" s="5"/>
       <c r="I53" s="2"/>
       <c r="J53" s="5"/>
@@ -5045,7 +5050,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
     </row>
-    <row r="54" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H54" s="5"/>
       <c r="I54" s="2"/>
       <c r="J54" s="5"/>
@@ -5060,7 +5065,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
     </row>
-    <row r="55" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H55" s="5"/>
       <c r="I55" s="2"/>
       <c r="J55" s="5"/>
@@ -5076,7 +5081,113 @@
       <c r="T55" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="130">
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D1:N4"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q12"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A13:Q13"/>
     <mergeCell ref="G9:H9"/>
@@ -5101,113 +5212,6 @@
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="N22:P22"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q12"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D1:N4"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="A23:Q23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A27:Q27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5224,13 +5228,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>7620</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:colOff>323850</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -5248,13 +5252,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>449580</xdr:rowOff>
+                    <xdr:rowOff>447675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>746760</xdr:rowOff>
+                    <xdr:rowOff>742950</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5276,7 +5280,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>982980</xdr:rowOff>
+                    <xdr:rowOff>981075</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5292,13 +5296,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>937260</xdr:rowOff>
+                    <xdr:rowOff>933450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>1226820</xdr:rowOff>
+                    <xdr:rowOff>1228725</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5314,13 +5318,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>1173480</xdr:rowOff>
+                    <xdr:rowOff>1171575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>1470660</xdr:rowOff>
+                    <xdr:rowOff>1466850</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5334,15 +5338,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>312420</xdr:colOff>
+                    <xdr:colOff>314325</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>487680</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5364,7 +5368,7 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>1935480</xdr:rowOff>
+                    <xdr:rowOff>1933575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5380,13 +5384,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>1402080</xdr:rowOff>
+                    <xdr:rowOff>1400175</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>1699260</xdr:rowOff>
+                    <xdr:rowOff>1695450</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5410,890 +5414,890 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="6" customWidth="1"/>
     <col min="5" max="5" width="10" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="22.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="28.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="296"/>
-      <c r="B1" s="297"/>
-      <c r="C1" s="298"/>
-      <c r="D1" s="110" t="s">
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="224"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="123" t="s">
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="124"/>
+      <c r="P1" s="147"/>
       <c r="Q1" s="13">
         <v>45933</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="299"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="125" t="s">
+    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="227"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="126"/>
+      <c r="P2" s="149"/>
       <c r="Q2" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="299"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="125" t="s">
+    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="227"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="126"/>
+      <c r="P3" s="149"/>
       <c r="Q3" s="54">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="300"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="127" t="s">
+    <row r="4" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="228"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="128"/>
+      <c r="P4" s="151"/>
       <c r="Q4" s="53" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="145" t="s">
+    <row r="5" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="165" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="158">
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="176">
         <f>ANA!D5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="154" t="s">
+      <c r="E5" s="153"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="172" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="155"/>
-      <c r="I5" s="158">
+      <c r="H5" s="173"/>
+      <c r="I5" s="176">
         <f>ANA!I5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="142" t="s">
+      <c r="J5" s="153"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="143"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="158">
+      <c r="M5" s="163"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="176">
         <f>ANA!O5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="131"/>
-    </row>
-    <row r="6" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="135" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="154"/>
+    </row>
+    <row r="6" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="294">
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="221">
         <f>ANA!D6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="232"/>
-      <c r="F6" s="295"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="223"/>
       <c r="G6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="294">
+      <c r="I6" s="221">
         <f>ANA!I6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="232"/>
-      <c r="K6" s="295"/>
-      <c r="L6" s="135" t="s">
+      <c r="J6" s="222"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="136"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="294">
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="221">
         <f>ANA!O6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="232"/>
-      <c r="Q6" s="295"/>
-    </row>
-    <row r="7" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="138" t="s">
+      <c r="P6" s="222"/>
+      <c r="Q6" s="223"/>
+    </row>
+    <row r="7" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="294">
+      <c r="B7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="221">
         <f>ANA!D7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="232"/>
-      <c r="F7" s="295"/>
-      <c r="G7" s="156" t="s">
+      <c r="E7" s="222"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="157"/>
-      <c r="I7" s="294">
+      <c r="H7" s="175"/>
+      <c r="I7" s="221">
         <f>ANA!I7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="232"/>
-      <c r="K7" s="295"/>
-      <c r="L7" s="135" t="s">
+      <c r="J7" s="222"/>
+      <c r="K7" s="223"/>
+      <c r="L7" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="136"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="294">
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="221">
         <f>ANA!O7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="232"/>
-      <c r="Q7" s="295"/>
-    </row>
-    <row r="8" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="135" t="s">
+      <c r="P7" s="222"/>
+      <c r="Q7" s="223"/>
+    </row>
+    <row r="8" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="294">
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="221">
         <f>ANA!D8</f>
         <v>0</v>
       </c>
-      <c r="E8" s="232"/>
-      <c r="F8" s="295"/>
-      <c r="G8" s="175" t="s">
+      <c r="E8" s="222"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="176"/>
-      <c r="I8" s="294">
+      <c r="H8" s="111"/>
+      <c r="I8" s="221">
         <f>ANA!I8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="232"/>
-      <c r="K8" s="295"/>
-      <c r="L8" s="135" t="s">
+      <c r="J8" s="222"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="136"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="294">
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="221">
         <f>ANA!O8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="232"/>
-      <c r="Q8" s="295"/>
-    </row>
-    <row r="9" spans="1:17" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="200" t="s">
+      <c r="P8" s="222"/>
+      <c r="Q8" s="223"/>
+    </row>
+    <row r="9" spans="1:17" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="201"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="285">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="237">
         <f>ANA!D9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="286"/>
-      <c r="F9" s="287"/>
-      <c r="G9" s="206" t="s">
+      <c r="E9" s="238"/>
+      <c r="F9" s="239"/>
+      <c r="G9" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="207"/>
-      <c r="I9" s="285">
+      <c r="H9" s="62"/>
+      <c r="I9" s="237">
         <f>ANA!I9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="286"/>
-      <c r="K9" s="287"/>
-      <c r="L9" s="166" t="s">
+      <c r="J9" s="238"/>
+      <c r="K9" s="239"/>
+      <c r="L9" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="167"/>
-      <c r="N9" s="168"/>
-      <c r="O9" s="289">
+      <c r="M9" s="102"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="241">
         <f>ANA!O9</f>
         <v>0</v>
       </c>
-      <c r="P9" s="222"/>
-      <c r="Q9" s="290"/>
-    </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P9" s="242"/>
+      <c r="Q9" s="243"/>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="288" t="s">
+      <c r="B10" s="240" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="288"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="288" t="s">
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="240" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="288"/>
-      <c r="G10" s="288"/>
-      <c r="H10" s="288"/>
-      <c r="I10" s="288"/>
-      <c r="J10" s="284" t="s">
+      <c r="F10" s="240"/>
+      <c r="G10" s="240"/>
+      <c r="H10" s="240"/>
+      <c r="I10" s="240"/>
+      <c r="J10" s="236" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="284"/>
+      <c r="K10" s="236"/>
       <c r="L10" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="M10" s="284" t="s">
+      <c r="M10" s="236" t="s">
         <v>87</v>
       </c>
-      <c r="N10" s="284"/>
-      <c r="O10" s="269" t="s">
+      <c r="N10" s="236"/>
+      <c r="O10" s="250" t="s">
         <v>88</v>
       </c>
-      <c r="P10" s="270"/>
+      <c r="P10" s="251"/>
       <c r="Q10" s="39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="29" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="29" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>1</v>
       </c>
-      <c r="B11" s="273" t="s">
+      <c r="B11" s="254" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="274"/>
-      <c r="D11" s="275"/>
-      <c r="E11" s="276" t="s">
+      <c r="C11" s="255"/>
+      <c r="D11" s="256"/>
+      <c r="E11" s="257" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="277"/>
-      <c r="G11" s="277"/>
-      <c r="H11" s="277"/>
-      <c r="I11" s="278"/>
-      <c r="J11" s="276" t="s">
+      <c r="F11" s="258"/>
+      <c r="G11" s="258"/>
+      <c r="H11" s="258"/>
+      <c r="I11" s="259"/>
+      <c r="J11" s="257" t="s">
         <v>134</v>
       </c>
-      <c r="K11" s="278"/>
+      <c r="K11" s="259"/>
       <c r="L11" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="276" t="s">
+      <c r="M11" s="257" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="278"/>
-      <c r="O11" s="271" t="s">
+      <c r="N11" s="259"/>
+      <c r="O11" s="252" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="272"/>
+      <c r="P11" s="253"/>
       <c r="Q11" s="37"/>
     </row>
-    <row r="12" spans="1:17" s="29" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" s="29" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <v>2</v>
       </c>
-      <c r="B12" s="291" t="s">
+      <c r="B12" s="244" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="292"/>
-      <c r="D12" s="293"/>
-      <c r="E12" s="258" t="s">
+      <c r="C12" s="245"/>
+      <c r="D12" s="246"/>
+      <c r="E12" s="247" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="259"/>
-      <c r="G12" s="259"/>
-      <c r="H12" s="259"/>
-      <c r="I12" s="260"/>
-      <c r="J12" s="258" t="s">
+      <c r="F12" s="248"/>
+      <c r="G12" s="248"/>
+      <c r="H12" s="248"/>
+      <c r="I12" s="249"/>
+      <c r="J12" s="247" t="s">
         <v>135</v>
       </c>
-      <c r="K12" s="260"/>
+      <c r="K12" s="249"/>
       <c r="L12" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="M12" s="258" t="s">
+      <c r="M12" s="247" t="s">
         <v>109</v>
       </c>
-      <c r="N12" s="260"/>
-      <c r="O12" s="261">
+      <c r="N12" s="249"/>
+      <c r="O12" s="229">
         <v>1</v>
       </c>
-      <c r="P12" s="262"/>
+      <c r="P12" s="230"/>
       <c r="Q12" s="37"/>
     </row>
-    <row r="13" spans="1:17" s="29" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" s="29" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30">
         <v>3</v>
       </c>
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="270" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="257"/>
-      <c r="E13" s="258" t="s">
+      <c r="C13" s="271"/>
+      <c r="D13" s="272"/>
+      <c r="E13" s="247" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="259"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="259"/>
-      <c r="I13" s="260"/>
-      <c r="J13" s="258" t="s">
+      <c r="F13" s="248"/>
+      <c r="G13" s="248"/>
+      <c r="H13" s="248"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="247" t="s">
         <v>136</v>
       </c>
-      <c r="K13" s="260"/>
+      <c r="K13" s="249"/>
       <c r="L13" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="258" t="s">
+      <c r="M13" s="247" t="s">
         <v>113</v>
       </c>
-      <c r="N13" s="260"/>
-      <c r="O13" s="261">
+      <c r="N13" s="249"/>
+      <c r="O13" s="229">
         <v>1</v>
       </c>
-      <c r="P13" s="262"/>
+      <c r="P13" s="230"/>
       <c r="Q13" s="37"/>
     </row>
-    <row r="14" spans="1:17" s="29" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" s="29" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <v>4</v>
       </c>
-      <c r="B14" s="279" t="s">
+      <c r="B14" s="260" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="280"/>
-      <c r="D14" s="281"/>
-      <c r="E14" s="276" t="s">
+      <c r="C14" s="261"/>
+      <c r="D14" s="262"/>
+      <c r="E14" s="257" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="277"/>
-      <c r="G14" s="277"/>
-      <c r="H14" s="277"/>
-      <c r="I14" s="278"/>
-      <c r="J14" s="276" t="s">
+      <c r="F14" s="258"/>
+      <c r="G14" s="258"/>
+      <c r="H14" s="258"/>
+      <c r="I14" s="259"/>
+      <c r="J14" s="257" t="s">
         <v>137</v>
       </c>
-      <c r="K14" s="278"/>
+      <c r="K14" s="259"/>
       <c r="L14" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="276" t="s">
+      <c r="M14" s="257" t="s">
         <v>66</v>
       </c>
-      <c r="N14" s="278"/>
-      <c r="O14" s="261">
+      <c r="N14" s="259"/>
+      <c r="O14" s="229">
         <v>1</v>
       </c>
-      <c r="P14" s="262"/>
+      <c r="P14" s="230"/>
       <c r="Q14" s="38"/>
     </row>
-    <row r="15" spans="1:17" s="29" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" s="29" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32">
         <v>5</v>
       </c>
-      <c r="B15" s="267" t="s">
+      <c r="B15" s="273" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="268"/>
-      <c r="D15" s="268"/>
-      <c r="E15" s="263" t="s">
+      <c r="C15" s="231"/>
+      <c r="D15" s="231"/>
+      <c r="E15" s="232" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="264"/>
-      <c r="G15" s="264"/>
-      <c r="H15" s="264"/>
-      <c r="I15" s="264"/>
-      <c r="J15" s="265" t="s">
+      <c r="F15" s="233"/>
+      <c r="G15" s="233"/>
+      <c r="H15" s="233"/>
+      <c r="I15" s="233"/>
+      <c r="J15" s="234" t="s">
         <v>138</v>
       </c>
-      <c r="K15" s="266"/>
+      <c r="K15" s="235"/>
       <c r="L15" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="263" t="s">
+      <c r="M15" s="232" t="s">
         <v>70</v>
       </c>
-      <c r="N15" s="264"/>
-      <c r="O15" s="282" t="s">
+      <c r="N15" s="233"/>
+      <c r="O15" s="263" t="s">
         <v>71</v>
       </c>
-      <c r="P15" s="283"/>
+      <c r="P15" s="264"/>
       <c r="Q15" s="38"/>
     </row>
-    <row r="16" spans="1:17" s="29" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" s="29" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
         <v>6</v>
       </c>
-      <c r="B16" s="268" t="s">
+      <c r="B16" s="231" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="268"/>
-      <c r="D16" s="268"/>
-      <c r="E16" s="263" t="s">
+      <c r="C16" s="231"/>
+      <c r="D16" s="231"/>
+      <c r="E16" s="232" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="264"/>
-      <c r="G16" s="264"/>
-      <c r="H16" s="264"/>
-      <c r="I16" s="264"/>
-      <c r="J16" s="263" t="s">
+      <c r="F16" s="233"/>
+      <c r="G16" s="233"/>
+      <c r="H16" s="233"/>
+      <c r="I16" s="233"/>
+      <c r="J16" s="232" t="s">
         <v>139</v>
       </c>
-      <c r="K16" s="264"/>
+      <c r="K16" s="233"/>
       <c r="L16" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="M16" s="263" t="s">
+      <c r="M16" s="232" t="s">
         <v>70</v>
       </c>
-      <c r="N16" s="264"/>
-      <c r="O16" s="261">
+      <c r="N16" s="233"/>
+      <c r="O16" s="229">
         <v>1</v>
       </c>
-      <c r="P16" s="262"/>
+      <c r="P16" s="230"/>
       <c r="Q16" s="38"/>
     </row>
-    <row r="17" spans="1:17" s="29" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" s="29" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
         <v>7</v>
       </c>
-      <c r="B17" s="268" t="s">
+      <c r="B17" s="231" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="268"/>
-      <c r="D17" s="268"/>
-      <c r="E17" s="263" t="s">
+      <c r="C17" s="231"/>
+      <c r="D17" s="231"/>
+      <c r="E17" s="232" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="264"/>
-      <c r="G17" s="264"/>
-      <c r="H17" s="264"/>
-      <c r="I17" s="264"/>
-      <c r="J17" s="265" t="s">
+      <c r="F17" s="233"/>
+      <c r="G17" s="233"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="234" t="s">
         <v>140</v>
       </c>
-      <c r="K17" s="266"/>
+      <c r="K17" s="235"/>
       <c r="L17" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="M17" s="263" t="s">
+      <c r="M17" s="232" t="s">
         <v>77</v>
       </c>
-      <c r="N17" s="264"/>
-      <c r="O17" s="261">
+      <c r="N17" s="233"/>
+      <c r="O17" s="229">
         <v>1</v>
       </c>
-      <c r="P17" s="262"/>
+      <c r="P17" s="230"/>
       <c r="Q17" s="38"/>
     </row>
-    <row r="18" spans="1:17" s="29" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" s="29" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>8</v>
       </c>
-      <c r="B18" s="268" t="s">
+      <c r="B18" s="231" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="268"/>
-      <c r="D18" s="268"/>
-      <c r="E18" s="263" t="s">
+      <c r="C18" s="231"/>
+      <c r="D18" s="231"/>
+      <c r="E18" s="232" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="264"/>
-      <c r="G18" s="264"/>
-      <c r="H18" s="264"/>
-      <c r="I18" s="264"/>
-      <c r="J18" s="265" t="s">
+      <c r="F18" s="233"/>
+      <c r="G18" s="233"/>
+      <c r="H18" s="233"/>
+      <c r="I18" s="233"/>
+      <c r="J18" s="234" t="s">
         <v>141</v>
       </c>
-      <c r="K18" s="266"/>
+      <c r="K18" s="235"/>
       <c r="L18" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="M18" s="263" t="s">
+      <c r="M18" s="232" t="s">
         <v>77</v>
       </c>
-      <c r="N18" s="264"/>
-      <c r="O18" s="261">
+      <c r="N18" s="233"/>
+      <c r="O18" s="229">
         <v>1</v>
       </c>
-      <c r="P18" s="262"/>
+      <c r="P18" s="230"/>
       <c r="Q18" s="38"/>
     </row>
-    <row r="19" spans="1:17" s="29" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" s="29" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32">
         <v>9</v>
       </c>
-      <c r="B19" s="268" t="s">
+      <c r="B19" s="231" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="268"/>
-      <c r="D19" s="268"/>
-      <c r="E19" s="263" t="s">
+      <c r="C19" s="231"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="232" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="264"/>
-      <c r="G19" s="264"/>
-      <c r="H19" s="264"/>
-      <c r="I19" s="264"/>
-      <c r="J19" s="265" t="s">
+      <c r="F19" s="233"/>
+      <c r="G19" s="233"/>
+      <c r="H19" s="233"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="234" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="266"/>
+      <c r="K19" s="235"/>
       <c r="L19" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="M19" s="263" t="s">
+      <c r="M19" s="232" t="s">
         <v>91</v>
       </c>
-      <c r="N19" s="264"/>
-      <c r="O19" s="261">
+      <c r="N19" s="233"/>
+      <c r="O19" s="229">
         <v>1</v>
       </c>
-      <c r="P19" s="262"/>
+      <c r="P19" s="230"/>
       <c r="Q19" s="38"/>
     </row>
-    <row r="20" spans="1:17" s="29" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" s="29" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>10</v>
       </c>
-      <c r="B20" s="268" t="s">
+      <c r="B20" s="231" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="268"/>
-      <c r="D20" s="268"/>
-      <c r="E20" s="263" t="s">
+      <c r="C20" s="231"/>
+      <c r="D20" s="231"/>
+      <c r="E20" s="232" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="264"/>
-      <c r="G20" s="264"/>
-      <c r="H20" s="264"/>
-      <c r="I20" s="264"/>
-      <c r="J20" s="265" t="s">
+      <c r="F20" s="233"/>
+      <c r="G20" s="233"/>
+      <c r="H20" s="233"/>
+      <c r="I20" s="233"/>
+      <c r="J20" s="234" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="266"/>
+      <c r="K20" s="235"/>
       <c r="L20" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="M20" s="263" t="s">
+      <c r="M20" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="N20" s="264"/>
-      <c r="O20" s="261">
+      <c r="N20" s="233"/>
+      <c r="O20" s="229">
         <v>1</v>
       </c>
-      <c r="P20" s="262"/>
+      <c r="P20" s="230"/>
       <c r="Q20" s="38"/>
     </row>
-    <row r="21" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="250" t="s">
+    <row r="21" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="251"/>
-      <c r="C21" s="251"/>
-      <c r="D21" s="251"/>
-      <c r="E21" s="251"/>
-      <c r="F21" s="251"/>
-      <c r="G21" s="251"/>
-      <c r="H21" s="251"/>
-      <c r="I21" s="251"/>
-      <c r="J21" s="251"/>
-      <c r="K21" s="251"/>
-      <c r="L21" s="251"/>
-      <c r="M21" s="251"/>
-      <c r="N21" s="251"/>
-      <c r="O21" s="251"/>
-      <c r="P21" s="251"/>
-      <c r="Q21" s="252"/>
-    </row>
-    <row r="22" spans="1:17" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="266"/>
+      <c r="C21" s="266"/>
+      <c r="D21" s="266"/>
+      <c r="E21" s="266"/>
+      <c r="F21" s="266"/>
+      <c r="G21" s="266"/>
+      <c r="H21" s="266"/>
+      <c r="I21" s="266"/>
+      <c r="J21" s="266"/>
+      <c r="K21" s="266"/>
+      <c r="L21" s="266"/>
+      <c r="M21" s="266"/>
+      <c r="N21" s="266"/>
+      <c r="O21" s="266"/>
+      <c r="P21" s="266"/>
+      <c r="Q21" s="267"/>
+    </row>
+    <row r="22" spans="1:17" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="208" t="s">
+      <c r="B22" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="253"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="171" t="s">
+      <c r="C22" s="268"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="170"/>
-      <c r="G22" s="171" t="s">
+      <c r="F22" s="105"/>
+      <c r="G22" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="170"/>
-      <c r="I22" s="171" t="s">
+      <c r="H22" s="105"/>
+      <c r="I22" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="170"/>
-      <c r="K22" s="169" t="s">
+      <c r="J22" s="105"/>
+      <c r="K22" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="170"/>
-      <c r="M22" s="171" t="s">
+      <c r="L22" s="105"/>
+      <c r="M22" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="170"/>
-      <c r="O22" s="171" t="s">
+      <c r="N22" s="105"/>
+      <c r="O22" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="P22" s="169"/>
-      <c r="Q22" s="254"/>
-    </row>
-    <row r="23" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P22" s="104"/>
+      <c r="Q22" s="269"/>
+    </row>
+    <row r="23" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="241"/>
-      <c r="C23" s="241"/>
-      <c r="D23" s="241"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="242"/>
-      <c r="G23" s="248"/>
-      <c r="H23" s="249"/>
-      <c r="I23" s="248"/>
-      <c r="J23" s="249"/>
-      <c r="K23" s="248"/>
-      <c r="L23" s="249"/>
-      <c r="M23" s="243"/>
-      <c r="N23" s="244"/>
-      <c r="O23" s="245"/>
-      <c r="P23" s="246"/>
-      <c r="Q23" s="247"/>
-    </row>
-    <row r="24" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="283"/>
+      <c r="C23" s="283"/>
+      <c r="D23" s="283"/>
+      <c r="E23" s="284"/>
+      <c r="F23" s="284"/>
+      <c r="G23" s="290"/>
+      <c r="H23" s="291"/>
+      <c r="I23" s="290"/>
+      <c r="J23" s="291"/>
+      <c r="K23" s="290"/>
+      <c r="L23" s="291"/>
+      <c r="M23" s="285"/>
+      <c r="N23" s="286"/>
+      <c r="O23" s="287"/>
+      <c r="P23" s="288"/>
+      <c r="Q23" s="289"/>
+    </row>
+    <row r="24" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="231"/>
-      <c r="C24" s="232"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="234"/>
-      <c r="F24" s="235"/>
-      <c r="G24" s="234"/>
-      <c r="H24" s="235"/>
-      <c r="I24" s="234"/>
-      <c r="J24" s="235"/>
-      <c r="K24" s="234"/>
-      <c r="L24" s="235"/>
-      <c r="M24" s="236"/>
-      <c r="N24" s="237"/>
-      <c r="O24" s="238"/>
-      <c r="P24" s="239"/>
-      <c r="Q24" s="240"/>
-    </row>
-    <row r="25" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="274"/>
+      <c r="C24" s="222"/>
+      <c r="D24" s="275"/>
+      <c r="E24" s="276"/>
+      <c r="F24" s="277"/>
+      <c r="G24" s="276"/>
+      <c r="H24" s="277"/>
+      <c r="I24" s="276"/>
+      <c r="J24" s="277"/>
+      <c r="K24" s="276"/>
+      <c r="L24" s="277"/>
+      <c r="M24" s="278"/>
+      <c r="N24" s="279"/>
+      <c r="O24" s="280"/>
+      <c r="P24" s="281"/>
+      <c r="Q24" s="282"/>
+    </row>
+    <row r="25" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="231"/>
-      <c r="C25" s="232"/>
-      <c r="D25" s="233"/>
-      <c r="E25" s="234"/>
-      <c r="F25" s="235"/>
-      <c r="G25" s="234"/>
-      <c r="H25" s="235"/>
-      <c r="I25" s="234"/>
-      <c r="J25" s="235"/>
-      <c r="K25" s="234"/>
-      <c r="L25" s="235"/>
-      <c r="M25" s="236"/>
-      <c r="N25" s="237"/>
-      <c r="O25" s="238"/>
-      <c r="P25" s="239"/>
-      <c r="Q25" s="240"/>
-    </row>
-    <row r="26" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="274"/>
+      <c r="C25" s="222"/>
+      <c r="D25" s="275"/>
+      <c r="E25" s="276"/>
+      <c r="F25" s="277"/>
+      <c r="G25" s="276"/>
+      <c r="H25" s="277"/>
+      <c r="I25" s="276"/>
+      <c r="J25" s="277"/>
+      <c r="K25" s="276"/>
+      <c r="L25" s="277"/>
+      <c r="M25" s="278"/>
+      <c r="N25" s="279"/>
+      <c r="O25" s="280"/>
+      <c r="P25" s="281"/>
+      <c r="Q25" s="282"/>
+    </row>
+    <row r="26" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="231"/>
-      <c r="C26" s="232"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="234"/>
-      <c r="F26" s="235"/>
-      <c r="G26" s="234"/>
-      <c r="H26" s="235"/>
-      <c r="I26" s="234"/>
-      <c r="J26" s="235"/>
-      <c r="K26" s="234"/>
-      <c r="L26" s="235"/>
-      <c r="M26" s="236"/>
-      <c r="N26" s="237"/>
-      <c r="O26" s="238"/>
-      <c r="P26" s="239"/>
-      <c r="Q26" s="240"/>
-    </row>
-    <row r="27" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="274"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="275"/>
+      <c r="E26" s="276"/>
+      <c r="F26" s="277"/>
+      <c r="G26" s="276"/>
+      <c r="H26" s="277"/>
+      <c r="I26" s="276"/>
+      <c r="J26" s="277"/>
+      <c r="K26" s="276"/>
+      <c r="L26" s="277"/>
+      <c r="M26" s="278"/>
+      <c r="N26" s="279"/>
+      <c r="O26" s="280"/>
+      <c r="P26" s="281"/>
+      <c r="Q26" s="282"/>
+    </row>
+    <row r="27" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="231"/>
-      <c r="C27" s="232"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="234"/>
-      <c r="F27" s="235"/>
-      <c r="G27" s="234"/>
-      <c r="H27" s="235"/>
-      <c r="I27" s="234"/>
-      <c r="J27" s="235"/>
-      <c r="K27" s="234"/>
-      <c r="L27" s="235"/>
-      <c r="M27" s="236"/>
-      <c r="N27" s="237"/>
-      <c r="O27" s="238"/>
-      <c r="P27" s="239"/>
-      <c r="Q27" s="240"/>
-    </row>
-    <row r="28" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="274"/>
+      <c r="C27" s="222"/>
+      <c r="D27" s="275"/>
+      <c r="E27" s="276"/>
+      <c r="F27" s="277"/>
+      <c r="G27" s="276"/>
+      <c r="H27" s="277"/>
+      <c r="I27" s="276"/>
+      <c r="J27" s="277"/>
+      <c r="K27" s="276"/>
+      <c r="L27" s="277"/>
+      <c r="M27" s="278"/>
+      <c r="N27" s="279"/>
+      <c r="O27" s="280"/>
+      <c r="P27" s="281"/>
+      <c r="Q27" s="282"/>
+    </row>
+    <row r="28" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="231"/>
-      <c r="C28" s="232"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="234"/>
-      <c r="F28" s="235"/>
-      <c r="G28" s="234"/>
-      <c r="H28" s="235"/>
-      <c r="I28" s="234"/>
-      <c r="J28" s="235"/>
-      <c r="K28" s="234"/>
-      <c r="L28" s="235"/>
-      <c r="M28" s="236"/>
-      <c r="N28" s="237"/>
-      <c r="O28" s="238"/>
-      <c r="P28" s="239"/>
-      <c r="Q28" s="240"/>
-    </row>
-    <row r="29" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="274"/>
+      <c r="C28" s="222"/>
+      <c r="D28" s="275"/>
+      <c r="E28" s="276"/>
+      <c r="F28" s="277"/>
+      <c r="G28" s="276"/>
+      <c r="H28" s="277"/>
+      <c r="I28" s="276"/>
+      <c r="J28" s="277"/>
+      <c r="K28" s="276"/>
+      <c r="L28" s="277"/>
+      <c r="M28" s="278"/>
+      <c r="N28" s="279"/>
+      <c r="O28" s="280"/>
+      <c r="P28" s="281"/>
+      <c r="Q28" s="282"/>
+    </row>
+    <row r="29" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="231"/>
-      <c r="C29" s="232"/>
-      <c r="D29" s="233"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="235"/>
-      <c r="G29" s="234"/>
-      <c r="H29" s="235"/>
-      <c r="I29" s="234"/>
-      <c r="J29" s="235"/>
-      <c r="K29" s="234"/>
-      <c r="L29" s="235"/>
-      <c r="M29" s="236"/>
-      <c r="N29" s="237"/>
-      <c r="O29" s="238"/>
-      <c r="P29" s="239"/>
-      <c r="Q29" s="240"/>
-    </row>
-    <row r="30" spans="1:17" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="274"/>
+      <c r="C29" s="222"/>
+      <c r="D29" s="275"/>
+      <c r="E29" s="276"/>
+      <c r="F29" s="277"/>
+      <c r="G29" s="276"/>
+      <c r="H29" s="277"/>
+      <c r="I29" s="276"/>
+      <c r="J29" s="277"/>
+      <c r="K29" s="276"/>
+      <c r="L29" s="277"/>
+      <c r="M29" s="278"/>
+      <c r="N29" s="279"/>
+      <c r="O29" s="280"/>
+      <c r="P29" s="281"/>
+      <c r="Q29" s="282"/>
+    </row>
+    <row r="30" spans="1:17" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="221"/>
-      <c r="C30" s="222"/>
-      <c r="D30" s="223"/>
-      <c r="E30" s="224"/>
-      <c r="F30" s="225"/>
-      <c r="G30" s="224"/>
-      <c r="H30" s="225"/>
-      <c r="I30" s="224"/>
-      <c r="J30" s="225"/>
-      <c r="K30" s="224"/>
-      <c r="L30" s="225"/>
-      <c r="M30" s="226"/>
-      <c r="N30" s="227"/>
-      <c r="O30" s="228"/>
-      <c r="P30" s="229"/>
-      <c r="Q30" s="230"/>
-    </row>
-    <row r="41" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="292"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="293"/>
+      <c r="E30" s="294"/>
+      <c r="F30" s="295"/>
+      <c r="G30" s="294"/>
+      <c r="H30" s="295"/>
+      <c r="I30" s="294"/>
+      <c r="J30" s="295"/>
+      <c r="K30" s="294"/>
+      <c r="L30" s="295"/>
+      <c r="M30" s="296"/>
+      <c r="N30" s="297"/>
+      <c r="O30" s="298"/>
+      <c r="P30" s="299"/>
+      <c r="Q30" s="300"/>
+    </row>
+    <row r="41" spans="8:20" x14ac:dyDescent="0.25">
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:20" x14ac:dyDescent="0.25">
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="8:20" x14ac:dyDescent="0.25">
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H44" s="5"/>
       <c r="I44" s="2"/>
       <c r="J44" s="5"/>
@@ -6308,7 +6312,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H45" s="5"/>
       <c r="I45" s="2"/>
       <c r="J45" s="5"/>
@@ -6323,7 +6327,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
     </row>
-    <row r="46" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H46" s="5"/>
       <c r="I46" s="2"/>
       <c r="J46" s="5"/>
@@ -6338,7 +6342,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
     </row>
-    <row r="47" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H47" s="5"/>
       <c r="I47" s="2"/>
       <c r="J47" s="5"/>
@@ -6355,35 +6359,107 @@
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:N4"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A21:Q21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:I19"/>
@@ -6408,821 +6484,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="A21:Q21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:S24"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23:L23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="22.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="28.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="312"/>
-      <c r="B1" s="313"/>
-      <c r="C1" s="314"/>
-      <c r="D1" s="110" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="123" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="13">
-        <v>45933</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="315"/>
-      <c r="B2" s="316"/>
-      <c r="C2" s="317"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="125" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="315"/>
-      <c r="B3" s="316"/>
-      <c r="C3" s="317"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="125" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="318"/>
-      <c r="B4" s="319"/>
-      <c r="C4" s="320"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="127" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="53" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="145" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="158">
-        <f>ANA!D5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="154" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5" s="155"/>
-      <c r="I5" s="158">
-        <f>ANA!I5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="142" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="143"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="158">
-        <f>ANA!O5</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="131"/>
-    </row>
-    <row r="6" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="135" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="294">
-        <f>ANA!D6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="232"/>
-      <c r="F6" s="295"/>
-      <c r="G6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="294">
-        <f>ANA!I6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="232"/>
-      <c r="K6" s="295"/>
-      <c r="L6" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="136"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="294">
-        <f>ANA!O6</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="232"/>
-      <c r="Q6" s="295"/>
-    </row>
-    <row r="7" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="138" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="294">
-        <f>ANA!D7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="232"/>
-      <c r="F7" s="295"/>
-      <c r="G7" s="156" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="157"/>
-      <c r="I7" s="294">
-        <f>ANA!I7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="232"/>
-      <c r="K7" s="295"/>
-      <c r="L7" s="135" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" s="136"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="294">
-        <f>ANA!O7</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="232"/>
-      <c r="Q7" s="295"/>
-    </row>
-    <row r="8" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="135" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="294">
-        <f>ANA!D8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="232"/>
-      <c r="F8" s="295"/>
-      <c r="G8" s="175" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="176"/>
-      <c r="I8" s="294">
-        <f>ANA!I8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="232"/>
-      <c r="K8" s="295"/>
-      <c r="L8" s="135" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" s="136"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="294">
-        <f>ANA!O8</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="232"/>
-      <c r="Q8" s="295"/>
-    </row>
-    <row r="9" spans="1:17" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="200" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="201"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="285">
-        <f>ANA!D9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="286"/>
-      <c r="F9" s="287"/>
-      <c r="G9" s="206" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="207"/>
-      <c r="I9" s="285">
-        <f>ANA!I9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="286"/>
-      <c r="K9" s="287"/>
-      <c r="L9" s="166" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="167"/>
-      <c r="N9" s="168"/>
-      <c r="O9" s="289">
-        <f>ANA!O9</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="222"/>
-      <c r="Q9" s="290"/>
-    </row>
-    <row r="10" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="306" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="307"/>
-      <c r="C10" s="307"/>
-      <c r="D10" s="307"/>
-      <c r="E10" s="307"/>
-      <c r="F10" s="307"/>
-      <c r="G10" s="307"/>
-      <c r="H10" s="307"/>
-      <c r="I10" s="307"/>
-      <c r="J10" s="307"/>
-      <c r="K10" s="307"/>
-      <c r="L10" s="307"/>
-      <c r="M10" s="307"/>
-      <c r="N10" s="307"/>
-      <c r="O10" s="307"/>
-      <c r="P10" s="307"/>
-      <c r="Q10" s="307"/>
-    </row>
-    <row r="11" spans="1:17" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="308" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="309"/>
-      <c r="D11" s="308" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="310"/>
-      <c r="F11" s="310"/>
-      <c r="G11" s="309"/>
-      <c r="H11" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="308" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" s="311"/>
-      <c r="M11" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11" s="308" t="s">
-        <v>124</v>
-      </c>
-      <c r="O11" s="310"/>
-      <c r="P11" s="309"/>
-      <c r="Q11" s="46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="L12" s="100"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="301"/>
-      <c r="O12" s="302"/>
-      <c r="P12" s="303"/>
-      <c r="Q12" s="51"/>
-    </row>
-    <row r="13" spans="1:17" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="L13" s="100"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="301"/>
-      <c r="O13" s="302"/>
-      <c r="P13" s="303"/>
-      <c r="Q13" s="51"/>
-    </row>
-    <row r="14" spans="1:17" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="L14" s="100"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="301"/>
-      <c r="O14" s="302"/>
-      <c r="P14" s="303"/>
-      <c r="Q14" s="51"/>
-    </row>
-    <row r="15" spans="1:17" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="L15" s="100"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="301"/>
-      <c r="O15" s="302"/>
-      <c r="P15" s="303"/>
-      <c r="Q15" s="51"/>
-    </row>
-    <row r="16" spans="1:17" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" s="100"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="301"/>
-      <c r="O16" s="302"/>
-      <c r="P16" s="303"/>
-      <c r="Q16" s="51"/>
-    </row>
-    <row r="17" spans="1:19" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="L17" s="100"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="301"/>
-      <c r="O17" s="302"/>
-      <c r="P17" s="303"/>
-      <c r="Q17" s="51"/>
-    </row>
-    <row r="18" spans="1:19" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="L18" s="100"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="301"/>
-      <c r="O18" s="302"/>
-      <c r="P18" s="303"/>
-      <c r="Q18" s="51"/>
-    </row>
-    <row r="19" spans="1:19" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="L19" s="100"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="301"/>
-      <c r="O19" s="302"/>
-      <c r="P19" s="303"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="L20" s="100"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="301"/>
-      <c r="O20" s="302"/>
-      <c r="P20" s="303"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="L21" s="100"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="301"/>
-      <c r="O21" s="302"/>
-      <c r="P21" s="303"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:19" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="L22" s="100"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="301"/>
-      <c r="O22" s="302"/>
-      <c r="P22" s="303"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="L23" s="100"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="301"/>
-      <c r="O23" s="302"/>
-      <c r="P23" s="303"/>
-      <c r="Q23" s="51"/>
-    </row>
-    <row r="24" spans="1:19" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="185" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="304"/>
-      <c r="C24" s="304"/>
-      <c r="D24" s="304"/>
-      <c r="E24" s="304"/>
-      <c r="F24" s="304"/>
-      <c r="G24" s="304"/>
-      <c r="H24" s="305"/>
-      <c r="I24" s="185" t="s">
-        <v>131</v>
-      </c>
-      <c r="J24" s="304"/>
-      <c r="K24" s="304"/>
-      <c r="L24" s="304"/>
-      <c r="M24" s="304"/>
-      <c r="N24" s="304"/>
-      <c r="O24" s="304"/>
-      <c r="P24" s="304"/>
-      <c r="Q24" s="305"/>
-    </row>
-  </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:N4"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:Q6"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:F8"/>
@@ -7235,800 +6496,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:N7"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="I24:Q24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:T45"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10" style="6" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="22.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="3.5546875" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="17" max="17" width="28.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119"/>
-      <c r="B1" s="119"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="110" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="123" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="13">
-        <v>45933</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="125" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="125" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="121"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="117"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="127" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="53" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="145" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="146"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="154" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5" s="155"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="142" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="143"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="131"/>
-    </row>
-    <row r="6" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="135" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="135" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="136"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="134"/>
-    </row>
-    <row r="7" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="138" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="156" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="157"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="135" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" s="136"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="134"/>
-    </row>
-    <row r="8" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="135" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="175" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="176"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="135" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" s="136"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="133"/>
-      <c r="Q8" s="134"/>
-    </row>
-    <row r="9" spans="1:17" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="200" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="201"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="206" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="207"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="199"/>
-      <c r="L9" s="166" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="167"/>
-      <c r="N9" s="168"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="165"/>
-    </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="188" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="189"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="180" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="182" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="183"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="185" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="186"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="186"/>
-      <c r="Q10" s="187"/>
-    </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="188" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="189"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="188" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="188" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="189"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="191" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="192"/>
-      <c r="N11" s="192"/>
-      <c r="O11" s="192"/>
-      <c r="P11" s="192"/>
-      <c r="Q11" s="193"/>
-    </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="210" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="211"/>
-      <c r="C12" s="211"/>
-      <c r="D12" s="211"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="211" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="211"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="211"/>
-      <c r="K12" s="212"/>
-      <c r="L12" s="194"/>
-      <c r="M12" s="195"/>
-      <c r="N12" s="195"/>
-      <c r="O12" s="195"/>
-      <c r="P12" s="195"/>
-      <c r="Q12" s="196"/>
-    </row>
-    <row r="13" spans="1:17" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="203" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="204"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="204"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="204"/>
-      <c r="P13" s="204"/>
-      <c r="Q13" s="205"/>
-    </row>
-    <row r="14" spans="1:17" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="208" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="209"/>
-      <c r="D14" s="171" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="171" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="170"/>
-      <c r="K14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="169" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="169"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="99" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="99" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="99" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="99" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="99" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="99" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="1:20" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="109"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-    </row>
-    <row r="39" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H42" s="5"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-    </row>
-    <row r="43" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H43" s="5"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-    </row>
-    <row r="44" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H44" s="5"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-    </row>
-    <row r="45" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H45" s="5"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="A13:Q13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:Q12"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:K12"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="I6:K6"/>
@@ -8049,6 +6516,1543 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S24"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23:L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="301"/>
+      <c r="B1" s="302"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="13">
+        <v>45933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="304"/>
+      <c r="B2" s="305"/>
+      <c r="C2" s="306"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="148" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="304"/>
+      <c r="B3" s="305"/>
+      <c r="C3" s="306"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="148" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="307"/>
+      <c r="B4" s="308"/>
+      <c r="C4" s="309"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="165" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="176">
+        <f>ANA!D5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="153"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="172" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="173"/>
+      <c r="I5" s="176">
+        <f>ANA!I5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="153"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="162" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="163"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="176">
+        <f>ANA!O5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="154"/>
+    </row>
+    <row r="6" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="221">
+        <f>ANA!D6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="222"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="221">
+        <f>ANA!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="222"/>
+      <c r="K6" s="223"/>
+      <c r="L6" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="221">
+        <f>ANA!O6</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="222"/>
+      <c r="Q6" s="223"/>
+    </row>
+    <row r="7" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="221">
+        <f>ANA!D7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="222"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="175"/>
+      <c r="I7" s="221">
+        <f>ANA!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="222"/>
+      <c r="K7" s="223"/>
+      <c r="L7" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="221">
+        <f>ANA!O7</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="222"/>
+      <c r="Q7" s="223"/>
+    </row>
+    <row r="8" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="221">
+        <f>ANA!D8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="222"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="111"/>
+      <c r="I8" s="221">
+        <f>ANA!I8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="222"/>
+      <c r="K8" s="223"/>
+      <c r="L8" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="221">
+        <f>ANA!O8</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="222"/>
+      <c r="Q8" s="223"/>
+    </row>
+    <row r="9" spans="1:17" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="237">
+        <f>ANA!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="238"/>
+      <c r="F9" s="239"/>
+      <c r="G9" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="62"/>
+      <c r="I9" s="237">
+        <f>ANA!I9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="238"/>
+      <c r="K9" s="239"/>
+      <c r="L9" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="102"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="241">
+        <f>ANA!O9</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="242"/>
+      <c r="Q9" s="243"/>
+    </row>
+    <row r="10" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="310" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="311"/>
+      <c r="C10" s="311"/>
+      <c r="D10" s="311"/>
+      <c r="E10" s="311"/>
+      <c r="F10" s="311"/>
+      <c r="G10" s="311"/>
+      <c r="H10" s="311"/>
+      <c r="I10" s="311"/>
+      <c r="J10" s="311"/>
+      <c r="K10" s="311"/>
+      <c r="L10" s="311"/>
+      <c r="M10" s="311"/>
+      <c r="N10" s="311"/>
+      <c r="O10" s="311"/>
+      <c r="P10" s="311"/>
+      <c r="Q10" s="311"/>
+    </row>
+    <row r="11" spans="1:17" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="312" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="313"/>
+      <c r="D11" s="312" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="314"/>
+      <c r="F11" s="314"/>
+      <c r="G11" s="313"/>
+      <c r="H11" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="312" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="315"/>
+      <c r="M11" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="312" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" s="314"/>
+      <c r="P11" s="313"/>
+      <c r="Q11" s="46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="83"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="L12" s="83"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="316"/>
+      <c r="O12" s="317"/>
+      <c r="P12" s="318"/>
+      <c r="Q12" s="51"/>
+    </row>
+    <row r="13" spans="1:17" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" s="83"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="316"/>
+      <c r="O13" s="317"/>
+      <c r="P13" s="318"/>
+      <c r="Q13" s="51"/>
+    </row>
+    <row r="14" spans="1:17" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="83"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="83"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="316"/>
+      <c r="O14" s="317"/>
+      <c r="P14" s="318"/>
+      <c r="Q14" s="51"/>
+    </row>
+    <row r="15" spans="1:17" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="83"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" s="83"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="316"/>
+      <c r="O15" s="317"/>
+      <c r="P15" s="318"/>
+      <c r="Q15" s="51"/>
+    </row>
+    <row r="16" spans="1:17" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="83"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" s="83"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="316"/>
+      <c r="O16" s="317"/>
+      <c r="P16" s="318"/>
+      <c r="Q16" s="51"/>
+    </row>
+    <row r="17" spans="1:19" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="83"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" s="83"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="316"/>
+      <c r="O17" s="317"/>
+      <c r="P17" s="318"/>
+      <c r="Q17" s="51"/>
+    </row>
+    <row r="18" spans="1:19" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="83"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" s="83"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="316"/>
+      <c r="O18" s="317"/>
+      <c r="P18" s="318"/>
+      <c r="Q18" s="51"/>
+    </row>
+    <row r="19" spans="1:19" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="83"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" s="83"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="316"/>
+      <c r="O19" s="317"/>
+      <c r="P19" s="318"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="83"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" s="83"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="316"/>
+      <c r="O20" s="317"/>
+      <c r="P20" s="318"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="83"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" s="83"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="316"/>
+      <c r="O21" s="317"/>
+      <c r="P21" s="318"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="83"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="L22" s="83"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="316"/>
+      <c r="O22" s="317"/>
+      <c r="P22" s="318"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="83"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="L23" s="83"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="316"/>
+      <c r="O23" s="317"/>
+      <c r="P23" s="318"/>
+      <c r="Q23" s="51"/>
+    </row>
+    <row r="24" spans="1:19" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="120" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="319"/>
+      <c r="C24" s="319"/>
+      <c r="D24" s="319"/>
+      <c r="E24" s="319"/>
+      <c r="F24" s="319"/>
+      <c r="G24" s="319"/>
+      <c r="H24" s="320"/>
+      <c r="I24" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="319"/>
+      <c r="K24" s="319"/>
+      <c r="L24" s="319"/>
+      <c r="M24" s="319"/>
+      <c r="N24" s="319"/>
+      <c r="O24" s="319"/>
+      <c r="P24" s="319"/>
+      <c r="Q24" s="320"/>
+    </row>
+  </sheetData>
+  <mergeCells count="90">
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I24:Q24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:N4"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T45"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="3.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="142"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="146" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="13">
+        <v>45933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="148" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="142"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="148" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="144"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="165" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="172" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="173"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="162" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="163"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="152"/>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="154"/>
+    </row>
+    <row r="6" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="155"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="157"/>
+    </row>
+    <row r="7" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="174" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="175"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="155"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="157"/>
+    </row>
+    <row r="8" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="111"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="157"/>
+    </row>
+    <row r="9" spans="1:17" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="62"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="102"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="100"/>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="122"/>
+    </row>
+    <row r="11" spans="1:17" s="3" customFormat="1" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="123" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="125"/>
+    </row>
+    <row r="12" spans="1:17" s="3" customFormat="1" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="128"/>
+    </row>
+    <row r="13" spans="1:17" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
+    </row>
+    <row r="14" spans="1:17" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="105"/>
+      <c r="K14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="104"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="83"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="83"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="83"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="83"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="83"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="83"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="83"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="1:20" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="83"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="1:20" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="132"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+    </row>
+    <row r="39" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H42" s="5"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H43" s="5"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H44" s="5"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H45" s="5"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="83">
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:N4"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:Q12"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="A13:Q13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="N22:P22"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -8062,15 +8066,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>327660</xdr:colOff>
+                    <xdr:colOff>323850</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>297180</xdr:rowOff>
+                    <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8090,9 +8094,9 @@
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>312420</xdr:colOff>
+                    <xdr:colOff>314325</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>297180</xdr:rowOff>
+                    <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8112,7 +8116,7 @@
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>312420</xdr:colOff>
+                    <xdr:colOff>314325</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -8134,9 +8138,9 @@
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>312420</xdr:colOff>
+                    <xdr:colOff>314325</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>297180</xdr:rowOff>
+                    <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8156,9 +8160,9 @@
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>312420</xdr:colOff>
+                    <xdr:colOff>314325</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>297180</xdr:rowOff>
+                    <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8172,15 +8176,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>312420</xdr:colOff>
+                    <xdr:colOff>314325</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>297180</xdr:rowOff>
+                    <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -8200,7 +8204,7 @@
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>312420</xdr:colOff>
+                    <xdr:colOff>314325</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -8222,9 +8226,9 @@
                   </from>
                   <to>
                     <xdr:col>0</xdr:col>
-                    <xdr:colOff>312420</xdr:colOff>
+                    <xdr:colOff>314325</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>297180</xdr:rowOff>
+                    <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
